--- a/example/info/02 properties info.xlsx
+++ b/example/info/02 properties info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>test id</t>
+          <t>test_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>old filename</t>
+          <t>old_filename</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>test type</t>
+          <t>test_type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>A_0 (mm)</t>
+          <t>A_0_(mm)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>h_0 (mm)</t>
+          <t>h_0_(mm)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -487,31 +487,6 @@
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UPL_0</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>UPL_1</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LPL_0</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>LPL_1</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
         </is>
       </c>
     </row>
@@ -557,21 +532,6 @@
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>0.0021430312117828</v>
-      </c>
-      <c r="M2" t="n">
-        <v>158.406047302999</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0008238521881653</v>
-      </c>
-      <c r="O2" t="n">
-        <v>74.37073472538241</v>
-      </c>
-      <c r="P2" t="n">
-        <v>63702.73562050127</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -619,21 +579,6 @@
           <t>trim at 0.11</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>0.0031632217586024</v>
-      </c>
-      <c r="M3" t="n">
-        <v>198.512982112349</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.0008592908995195</v>
-      </c>
-      <c r="O3" t="n">
-        <v>73.3049745800319</v>
-      </c>
-      <c r="P3" t="n">
-        <v>54345.38412413871</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -681,21 +626,6 @@
           <t>trim at 0.105</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>0.0012405455890814</v>
-      </c>
-      <c r="M4" t="n">
-        <v>115.590404178709</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.7478216041874e-05</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36.4292608004567</v>
-      </c>
-      <c r="P4" t="n">
-        <v>65257.0047943025</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -739,21 +669,6 @@
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>0.0013308344028587</v>
-      </c>
-      <c r="M5" t="n">
-        <v>100.116005949159</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.0004647292114464</v>
-      </c>
-      <c r="O5" t="n">
-        <v>39.1667084006418</v>
-      </c>
-      <c r="P5" t="n">
-        <v>70371.70329060289</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -797,21 +712,6 @@
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>0.0036687573069259</v>
-      </c>
-      <c r="M6" t="n">
-        <v>192.947593520996</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.0010250119481079</v>
-      </c>
-      <c r="O6" t="n">
-        <v>35.2190159803605</v>
-      </c>
-      <c r="P6" t="n">
-        <v>59661.03241166723</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -855,21 +755,6 @@
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>0.0034578054274945</v>
-      </c>
-      <c r="M7" t="n">
-        <v>212.461144507981</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-0.0001372276497661</v>
-      </c>
-      <c r="O7" t="n">
-        <v>12.2246477870196</v>
-      </c>
-      <c r="P7" t="n">
-        <v>55698.09579430651</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -913,21 +798,6 @@
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>0.0019856080988389</v>
-      </c>
-      <c r="M8" t="n">
-        <v>133.484577967839</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0007248730770316</v>
-      </c>
-      <c r="O8" t="n">
-        <v>55.4581964877506</v>
-      </c>
-      <c r="P8" t="n">
-        <v>61889.59625174473</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -971,21 +841,6 @@
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>0.0022306410620245</v>
-      </c>
-      <c r="M9" t="n">
-        <v>153.024416048495</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.0020046923510829</v>
-      </c>
-      <c r="O9" t="n">
-        <v>139.948060973625</v>
-      </c>
-      <c r="P9" t="n">
-        <v>57873.11208980431</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1029,21 +884,6 @@
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>0.0038156755099284</v>
-      </c>
-      <c r="M10" t="n">
-        <v>183.56403158262</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.0009636610746946</v>
-      </c>
-      <c r="O10" t="n">
-        <v>28.8565435888071</v>
-      </c>
-      <c r="P10" t="n">
-        <v>54244.98771203815</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1087,21 +927,6 @@
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>0.0030560513265569</v>
-      </c>
-      <c r="M11" t="n">
-        <v>164.610840241371</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.0025944849826447</v>
-      </c>
-      <c r="O11" t="n">
-        <v>137.77644701028</v>
-      </c>
-      <c r="P11" t="n">
-        <v>58137.67313198094</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1145,21 +970,6 @@
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>0.0028824921341948</v>
-      </c>
-      <c r="M12" t="n">
-        <v>197.823708886257</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0021151156284045</v>
-      </c>
-      <c r="O12" t="n">
-        <v>157.543106150142</v>
-      </c>
-      <c r="P12" t="n">
-        <v>52491.31610386107</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1203,21 +1013,6 @@
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>0.0031624118084904</v>
-      </c>
-      <c r="M13" t="n">
-        <v>186.003104711952</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.0015054054397589</v>
-      </c>
-      <c r="O13" t="n">
-        <v>95.5849836672474</v>
-      </c>
-      <c r="P13" t="n">
-        <v>54567.15360359359</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1261,21 +1056,6 @@
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>0.0030280954502827</v>
-      </c>
-      <c r="M14" t="n">
-        <v>191.93280380166</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.0007834577679747</v>
-      </c>
-      <c r="O14" t="n">
-        <v>62.8521211497185</v>
-      </c>
-      <c r="P14" t="n">
-        <v>57506.24417888996</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1319,21 +1099,6 @@
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>0.0029354443939829</v>
-      </c>
-      <c r="M15" t="n">
-        <v>179.013564063243</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.0006824260647774</v>
-      </c>
-      <c r="O15" t="n">
-        <v>46.8713138583788</v>
-      </c>
-      <c r="P15" t="n">
-        <v>58651.20957602798</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1377,21 +1142,6 @@
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>0.0006707484800995</v>
-      </c>
-      <c r="M16" t="n">
-        <v>56.3769290357358</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.0003282574831909</v>
-      </c>
-      <c r="O16" t="n">
-        <v>31.172043570381</v>
-      </c>
-      <c r="P16" t="n">
-        <v>73592.84095891487</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1435,21 +1185,6 @@
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>0.0025738738481878</v>
-      </c>
-      <c r="M17" t="n">
-        <v>144.247777516109</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.0008066529172635</v>
-      </c>
-      <c r="O17" t="n">
-        <v>38.3440504691419</v>
-      </c>
-      <c r="P17" t="n">
-        <v>59926.70480174591</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1493,21 +1228,6 @@
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>0.0041106618582026</v>
-      </c>
-      <c r="M18" t="n">
-        <v>227.601528876447</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.0011219008159882</v>
-      </c>
-      <c r="O18" t="n">
-        <v>78.5656891759014</v>
-      </c>
-      <c r="P18" t="n">
-        <v>49865.42503582808</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1551,21 +1271,6 @@
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>0.0023649733367396</v>
-      </c>
-      <c r="M19" t="n">
-        <v>102.235369819713</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.0011735003724328</v>
-      </c>
-      <c r="O19" t="n">
-        <v>34.9378942094105</v>
-      </c>
-      <c r="P19" t="n">
-        <v>56482.58720621179</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1609,21 +1314,6 @@
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>0.0033726568852873</v>
-      </c>
-      <c r="M20" t="n">
-        <v>203.724300085789</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.0016394255162135</v>
-      </c>
-      <c r="O20" t="n">
-        <v>83.8960775718557</v>
-      </c>
-      <c r="P20" t="n">
-        <v>69135.73378144363</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1667,21 +1357,6 @@
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>0.0031797904613142</v>
-      </c>
-      <c r="M21" t="n">
-        <v>184.962353082935</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.0001786999124442</v>
-      </c>
-      <c r="O21" t="n">
-        <v>5.87788623789952</v>
-      </c>
-      <c r="P21" t="n">
-        <v>59673.13012680211</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1725,21 +1400,6 @@
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>0.0024472642485076</v>
-      </c>
-      <c r="M22" t="n">
-        <v>147.650044884146</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.0007785491347406</v>
-      </c>
-      <c r="O22" t="n">
-        <v>50.5803295346691</v>
-      </c>
-      <c r="P22" t="n">
-        <v>58170.33389860614</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1783,21 +1443,6 @@
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>0.0025581688826486</v>
-      </c>
-      <c r="M23" t="n">
-        <v>176.979439785403</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.0008672210843821</v>
-      </c>
-      <c r="O23" t="n">
-        <v>76.786453171376</v>
-      </c>
-      <c r="P23" t="n">
-        <v>59252.56043784516</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1841,21 +1486,6 @@
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>0.0028913880631288</v>
-      </c>
-      <c r="M24" t="n">
-        <v>166.148394269309</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.000101444910045</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.554878851791746</v>
-      </c>
-      <c r="P24" t="n">
-        <v>59353.72383286097</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1899,21 +1529,6 @@
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>0.0024196761628747</v>
-      </c>
-      <c r="M25" t="n">
-        <v>143.264709458966</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.0001432003069386</v>
-      </c>
-      <c r="O25" t="n">
-        <v>4.01383758295543</v>
-      </c>
-      <c r="P25" t="n">
-        <v>61169.49209582098</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1957,21 +1572,6 @@
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>0.0026181667841312</v>
-      </c>
-      <c r="M26" t="n">
-        <v>164.528068453978</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-4.15095955106565e-05</v>
-      </c>
-      <c r="O26" t="n">
-        <v>14.3557569931856</v>
-      </c>
-      <c r="P26" t="n">
-        <v>56462.62553228906</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2015,21 +1615,6 @@
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>0.0038502341851608</v>
-      </c>
-      <c r="M27" t="n">
-        <v>211.28186215837</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.0006415447149677</v>
-      </c>
-      <c r="O27" t="n">
-        <v>23.3868577089734</v>
-      </c>
-      <c r="P27" t="n">
-        <v>58558.17653744132</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2073,21 +1658,6 @@
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>0.0012133305043666</v>
-      </c>
-      <c r="M28" t="n">
-        <v>100.820663952542</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-1.42019837143363e-05</v>
-      </c>
-      <c r="O28" t="n">
-        <v>25.7334372257117</v>
-      </c>
-      <c r="P28" t="n">
-        <v>61169.23784576812</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2131,21 +1701,6 @@
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>0.0018960100167003</v>
-      </c>
-      <c r="M29" t="n">
-        <v>114.945593796641</v>
-      </c>
-      <c r="N29" t="n">
-        <v>6.01328365101964e-05</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2.57205730032622</v>
-      </c>
-      <c r="P29" t="n">
-        <v>61209.7245441433</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2189,21 +1744,6 @@
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>0.0016458153709904</v>
-      </c>
-      <c r="M30" t="n">
-        <v>117.019256302744</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.0005784369041462</v>
-      </c>
-      <c r="O30" t="n">
-        <v>45.3311002700754</v>
-      </c>
-      <c r="P30" t="n">
-        <v>67162.82767500551</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2247,21 +1787,6 @@
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>0.002719677779803</v>
-      </c>
-      <c r="M31" t="n">
-        <v>185.923507771131</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.0001510644963774</v>
-      </c>
-      <c r="O31" t="n">
-        <v>59.2624167046206</v>
-      </c>
-      <c r="P31" t="n">
-        <v>49311.07842656266</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2305,21 +1830,6 @@
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>0.0005871015629028</v>
-      </c>
-      <c r="M32" t="n">
-        <v>46.1272742639521</v>
-      </c>
-      <c r="N32" t="n">
-        <v>8.762224361805309e-05</v>
-      </c>
-      <c r="O32" t="n">
-        <v>3.62086269641244</v>
-      </c>
-      <c r="P32" t="n">
-        <v>85101.44449705892</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2363,21 +1873,6 @@
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>0.0029281608179439</v>
-      </c>
-      <c r="M33" t="n">
-        <v>193.34158337017</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.001116674786109</v>
-      </c>
-      <c r="O33" t="n">
-        <v>95.3922366690816</v>
-      </c>
-      <c r="P33" t="n">
-        <v>54071.26799750867</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2421,21 +1916,6 @@
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>0.0005814067947547</v>
-      </c>
-      <c r="M34" t="n">
-        <v>44.360833762824</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.0001705546555184</v>
-      </c>
-      <c r="O34" t="n">
-        <v>13.1024432301733</v>
-      </c>
-      <c r="P34" t="n">
-        <v>76081.84927734443</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2479,21 +1959,6 @@
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>0.0006912896239247</v>
-      </c>
-      <c r="M35" t="n">
-        <v>48.1833180137349</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.0004534191495139</v>
-      </c>
-      <c r="O35" t="n">
-        <v>32.5395278457009</v>
-      </c>
-      <c r="P35" t="n">
-        <v>65766.00230349448</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2537,21 +2002,6 @@
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>0.0014631282682139</v>
-      </c>
-      <c r="M36" t="n">
-        <v>144.025333226662</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-0.000401527900887</v>
-      </c>
-      <c r="O36" t="n">
-        <v>40.5162310159823</v>
-      </c>
-      <c r="P36" t="n">
-        <v>55511.09310441385</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2595,21 +2045,6 @@
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>0.0039773369917128</v>
-      </c>
-      <c r="M37" t="n">
-        <v>218.94767432926</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.0013282499595122</v>
-      </c>
-      <c r="O37" t="n">
-        <v>100.166799037006</v>
-      </c>
-      <c r="P37" t="n">
-        <v>44838.41936804264</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2653,21 +2088,6 @@
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>0.0023381259215176</v>
-      </c>
-      <c r="M38" t="n">
-        <v>174.581165598501</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-0.0002656678046243</v>
-      </c>
-      <c r="O38" t="n">
-        <v>32.5799358286726</v>
-      </c>
-      <c r="P38" t="n">
-        <v>54536.28232687803</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2711,21 +2131,6 @@
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>0.0027342685913477</v>
-      </c>
-      <c r="M39" t="n">
-        <v>176.304083740973</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.000802505159437</v>
-      </c>
-      <c r="O39" t="n">
-        <v>79.9853239432246</v>
-      </c>
-      <c r="P39" t="n">
-        <v>49860.53582269121</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2769,21 +2174,6 @@
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>0.0021871174190301</v>
-      </c>
-      <c r="M40" t="n">
-        <v>126.327924989666</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.0003557996376856</v>
-      </c>
-      <c r="O40" t="n">
-        <v>21.056229422998</v>
-      </c>
-      <c r="P40" t="n">
-        <v>57484.122438532</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2827,21 +2217,6 @@
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>0.0023172225108585</v>
-      </c>
-      <c r="M41" t="n">
-        <v>127.142187354785</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.0011497599344323</v>
-      </c>
-      <c r="O41" t="n">
-        <v>66.3183206498186</v>
-      </c>
-      <c r="P41" t="n">
-        <v>52099.20037964602</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2885,21 +2260,6 @@
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>4.26180075737827e-05</v>
-      </c>
-      <c r="M42" t="n">
-        <v>43.69035133474</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-0.000247711680446</v>
-      </c>
-      <c r="O42" t="n">
-        <v>27.3378288330787</v>
-      </c>
-      <c r="P42" t="n">
-        <v>56323.97641865361</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2943,21 +2303,6 @@
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>0.002043807001187</v>
-      </c>
-      <c r="M43" t="n">
-        <v>137.914967289347</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-0.0004040128946626</v>
-      </c>
-      <c r="O43" t="n">
-        <v>22.2865332229986</v>
-      </c>
-      <c r="P43" t="n">
-        <v>47237.31278694243</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3001,21 +2346,6 @@
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>0.0014972913617768</v>
-      </c>
-      <c r="M44" t="n">
-        <v>106.423782753718</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.0003143288916249</v>
-      </c>
-      <c r="O44" t="n">
-        <v>49.9532970855636</v>
-      </c>
-      <c r="P44" t="n">
-        <v>47736.49806565988</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3059,21 +2389,6 @@
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>0.0033548701370235</v>
-      </c>
-      <c r="M45" t="n">
-        <v>190.806708666229</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.0010184079948085</v>
-      </c>
-      <c r="O45" t="n">
-        <v>89.1497552803521</v>
-      </c>
-      <c r="P45" t="n">
-        <v>43508.92383366616</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3117,21 +2432,6 @@
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>0.0015456633195706</v>
-      </c>
-      <c r="M46" t="n">
-        <v>98.3135045128474</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-0.000214739340301</v>
-      </c>
-      <c r="O46" t="n">
-        <v>13.0435931132256</v>
-      </c>
-      <c r="P46" t="n">
-        <v>48437.73151640273</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3175,21 +2475,6 @@
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>0.0010443373566301</v>
-      </c>
-      <c r="M47" t="n">
-        <v>86.96884979516319</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.0002863352117741</v>
-      </c>
-      <c r="O47" t="n">
-        <v>46.8374431829298</v>
-      </c>
-      <c r="P47" t="n">
-        <v>52943.65838484174</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3237,21 +2522,6 @@
           <t>trim at 0.13</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>0.0019787964702512</v>
-      </c>
-      <c r="M48" t="n">
-        <v>107.531322495733</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.0003669462459159</v>
-      </c>
-      <c r="O48" t="n">
-        <v>23.5320241377496</v>
-      </c>
-      <c r="P48" t="n">
-        <v>52113.58790648386</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3295,21 +2565,6 @@
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>0.0038402199301262</v>
-      </c>
-      <c r="M49" t="n">
-        <v>214.622689722153</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0.0004674921801247</v>
-      </c>
-      <c r="O49" t="n">
-        <v>60.5090028752196</v>
-      </c>
-      <c r="P49" t="n">
-        <v>45694.07858279248</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3353,21 +2608,6 @@
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>0.0026026678908469</v>
-      </c>
-      <c r="M50" t="n">
-        <v>151.737831510864</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.0002964869684148</v>
-      </c>
-      <c r="O50" t="n">
-        <v>29.9205011226317</v>
-      </c>
-      <c r="P50" t="n">
-        <v>52822.10480683522</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3415,21 +2655,6 @@
           <t>trim at 0.15</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>0.0031636884288931</v>
-      </c>
-      <c r="M51" t="n">
-        <v>179.160245834743</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.0011921761350618</v>
-      </c>
-      <c r="O51" t="n">
-        <v>99.3182964530266</v>
-      </c>
-      <c r="P51" t="n">
-        <v>40497.81968468332</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3477,21 +2702,6 @@
           <t>trim at 0.175</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>0.0023622335493904</v>
-      </c>
-      <c r="M52" t="n">
-        <v>162.188065728032</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.0021842992068384</v>
-      </c>
-      <c r="O52" t="n">
-        <v>155.988580918375</v>
-      </c>
-      <c r="P52" t="n">
-        <v>34841.41802387166</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3539,21 +2749,6 @@
           <t>trim at 0.175</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>0.0018900313668732</v>
-      </c>
-      <c r="M53" t="n">
-        <v>134.337541640328</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.0004866780804578</v>
-      </c>
-      <c r="O53" t="n">
-        <v>58.4942477553271</v>
-      </c>
-      <c r="P53" t="n">
-        <v>54044.33410971532</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3601,21 +2796,6 @@
           <t>trim at 0.175</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>0.0009916351412732</v>
-      </c>
-      <c r="M54" t="n">
-        <v>71.2418157261492</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0.0001496748195769</v>
-      </c>
-      <c r="O54" t="n">
-        <v>22.3985404903691</v>
-      </c>
-      <c r="P54" t="n">
-        <v>58011.37414335085</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3659,21 +2839,6 @@
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>0.0027229878863634</v>
-      </c>
-      <c r="M55" t="n">
-        <v>152.399409973673</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.0008745455678985</v>
-      </c>
-      <c r="O55" t="n">
-        <v>51.3381952215828</v>
-      </c>
-      <c r="P55" t="n">
-        <v>54673.71837495033</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3717,21 +2882,6 @@
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>0.0019954432394527</v>
-      </c>
-      <c r="M56" t="n">
-        <v>126.804257125663</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.0004004304709806</v>
-      </c>
-      <c r="O56" t="n">
-        <v>46.9007946489988</v>
-      </c>
-      <c r="P56" t="n">
-        <v>50095.81368631024</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3779,21 +2929,6 @@
           <t>trim at 0.13</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>0.0023971281613097</v>
-      </c>
-      <c r="M57" t="n">
-        <v>149.984671993292</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.0009019390234575</v>
-      </c>
-      <c r="O57" t="n">
-        <v>62.7909486756447</v>
-      </c>
-      <c r="P57" t="n">
-        <v>58316.18295655812</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3837,21 +2972,6 @@
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>0.0023055159386087</v>
-      </c>
-      <c r="M58" t="n">
-        <v>151.968738810775</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.0003211662031008</v>
-      </c>
-      <c r="O58" t="n">
-        <v>64.1172888068544</v>
-      </c>
-      <c r="P58" t="n">
-        <v>44272.16051279124</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3895,21 +3015,6 @@
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>0.0025365000310913</v>
-      </c>
-      <c r="M59" t="n">
-        <v>159.315233127494</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0.0024241232600653</v>
-      </c>
-      <c r="O59" t="n">
-        <v>155.435889158498</v>
-      </c>
-      <c r="P59" t="n">
-        <v>34520.87058186135</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3953,21 +3058,6 @@
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>0.0019770578086991</v>
-      </c>
-      <c r="M60" t="n">
-        <v>114.21692709225</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.0010097971759519</v>
-      </c>
-      <c r="O60" t="n">
-        <v>63.6189773293808</v>
-      </c>
-      <c r="P60" t="n">
-        <v>52310.56454676712</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4015,21 +3105,6 @@
           <t>trim at 0.1</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>0.000581294238181</v>
-      </c>
-      <c r="M61" t="n">
-        <v>51.966869050494</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0.0001442326560836</v>
-      </c>
-      <c r="O61" t="n">
-        <v>27.8849658882577</v>
-      </c>
-      <c r="P61" t="n">
-        <v>55099.56525272816</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4077,21 +3152,6 @@
           <t>trim at 0.17</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>0.0029688495230802</v>
-      </c>
-      <c r="M62" t="n">
-        <v>157.454775694613</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0.0017112481955135</v>
-      </c>
-      <c r="O62" t="n">
-        <v>106.442938995528</v>
-      </c>
-      <c r="P62" t="n">
-        <v>40562.80442848011</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4135,21 +3195,6 @@
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>0.0023643508025239</v>
-      </c>
-      <c r="M63" t="n">
-        <v>120.321861081836</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0.0012231358549212</v>
-      </c>
-      <c r="O63" t="n">
-        <v>61.8332029123926</v>
-      </c>
-      <c r="P63" t="n">
-        <v>51251.21984452443</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4197,21 +3242,6 @@
           <t>trim at 0.175</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>0.0024274619103733</v>
-      </c>
-      <c r="M64" t="n">
-        <v>117.932091658521</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0.0008010589309638</v>
-      </c>
-      <c r="O64" t="n">
-        <v>37.2211409996473</v>
-      </c>
-      <c r="P64" t="n">
-        <v>49625.43212271877</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4259,21 +3289,6 @@
           <t>trim at 0.175</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>0.002799564711745</v>
-      </c>
-      <c r="M65" t="n">
-        <v>137.529404464271</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.0007074580040404</v>
-      </c>
-      <c r="O65" t="n">
-        <v>34.8154973917735</v>
-      </c>
-      <c r="P65" t="n">
-        <v>49095.9216823086</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4321,21 +3336,6 @@
           <t>trim at 0.17</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>0.0025058426924598</v>
-      </c>
-      <c r="M66" t="n">
-        <v>125.650398590921</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0.0024245690741838</v>
-      </c>
-      <c r="O66" t="n">
-        <v>122.049942516087</v>
-      </c>
-      <c r="P66" t="n">
-        <v>44300.42800121289</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4379,21 +3379,6 @@
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>0.0006459635547706</v>
-      </c>
-      <c r="M67" t="n">
-        <v>96.78575508036739</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-0.0005829674608728999</v>
-      </c>
-      <c r="O67" t="n">
-        <v>44.7571054503344</v>
-      </c>
-      <c r="P67" t="n">
-        <v>42336.50950927417</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4437,21 +3422,6 @@
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>0.0031558202835545</v>
-      </c>
-      <c r="M68" t="n">
-        <v>165.156659126179</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0.0030405006971745</v>
-      </c>
-      <c r="O68" t="n">
-        <v>161.336232365224</v>
-      </c>
-      <c r="P68" t="n">
-        <v>33129.03627980388</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4495,21 +3465,6 @@
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>0.0034908062617733</v>
-      </c>
-      <c r="M69" t="n">
-        <v>188.358407583882</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0.0001815677408716</v>
-      </c>
-      <c r="O69" t="n">
-        <v>44.0232438640259</v>
-      </c>
-      <c r="P69" t="n">
-        <v>43615.8236428747</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4553,21 +3508,6 @@
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>0.0036492251984442</v>
-      </c>
-      <c r="M70" t="n">
-        <v>178.246468462332</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.0011387312210549</v>
-      </c>
-      <c r="O70" t="n">
-        <v>79.088294760099</v>
-      </c>
-      <c r="P70" t="n">
-        <v>39497.47523606849</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4615,21 +3555,6 @@
           <t>trim at 0.14</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>0.0020042311549392</v>
-      </c>
-      <c r="M71" t="n">
-        <v>89.5786348354455</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.0003844597143342</v>
-      </c>
-      <c r="O71" t="n">
-        <v>28.9731903230109</v>
-      </c>
-      <c r="P71" t="n">
-        <v>37416.04709970556</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4677,21 +3602,6 @@
           <t>trim at 0.125</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>0.001638116266368</v>
-      </c>
-      <c r="M72" t="n">
-        <v>94.7858175387026</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0.0005136779511466</v>
-      </c>
-      <c r="O72" t="n">
-        <v>47.3625404782615</v>
-      </c>
-      <c r="P72" t="n">
-        <v>42175.08103243844</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4739,21 +3649,6 @@
           <t>trim at 0.09</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>0.0025588255988143</v>
-      </c>
-      <c r="M73" t="n">
-        <v>117.984652395155</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0.000920969806466</v>
-      </c>
-      <c r="O73" t="n">
-        <v>60.8121971062964</v>
-      </c>
-      <c r="P73" t="n">
-        <v>34906.89202062578</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4801,21 +3696,6 @@
           <t>trim at 0.1</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>0.0015751398899118</v>
-      </c>
-      <c r="M74" t="n">
-        <v>89.70936921435261</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0.0005262423136993001</v>
-      </c>
-      <c r="O74" t="n">
-        <v>49.7365635738737</v>
-      </c>
-      <c r="P74" t="n">
-        <v>38109.35075740957</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4863,21 +3743,6 @@
           <t>trim at 0.1</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>0.0003288655510823</v>
-      </c>
-      <c r="M75" t="n">
-        <v>46.6700725180651</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-0.0001090942928267</v>
-      </c>
-      <c r="O75" t="n">
-        <v>23.0730727529062</v>
-      </c>
-      <c r="P75" t="n">
-        <v>53879.36837894645</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4925,21 +3790,6 @@
           <t>trim at 0.14</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>0.0010519873621433</v>
-      </c>
-      <c r="M76" t="n">
-        <v>79.6278853066987</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0.0004081684907155</v>
-      </c>
-      <c r="O76" t="n">
-        <v>55.5182064817886</v>
-      </c>
-      <c r="P76" t="n">
-        <v>37447.92191543245</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4987,21 +3837,6 @@
           <t>trim at 0.14</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>0.0011414970920866</v>
-      </c>
-      <c r="M77" t="n">
-        <v>70.2101465114052</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.0003372887905942</v>
-      </c>
-      <c r="O77" t="n">
-        <v>38.8097050938778</v>
-      </c>
-      <c r="P77" t="n">
-        <v>39045.15951807063</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5045,21 +3880,6 @@
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>0.0018873649587801</v>
-      </c>
-      <c r="M78" t="n">
-        <v>110.081902277342</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-0.0005961304379504</v>
-      </c>
-      <c r="O78" t="n">
-        <v>16.0840702137286</v>
-      </c>
-      <c r="P78" t="n">
-        <v>37849.00595642768</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5107,21 +3927,6 @@
           <t>trim at 0.05</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>0.0012426941191744</v>
-      </c>
-      <c r="M79" t="n">
-        <v>60.0918208946391</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.0006835270138352</v>
-      </c>
-      <c r="O79" t="n">
-        <v>35.9240131779057</v>
-      </c>
-      <c r="P79" t="n">
-        <v>43221.08272458697</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5169,21 +3974,6 @@
           <t>trim at 0.1</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>0.0027373926171371</v>
-      </c>
-      <c r="M80" t="n">
-        <v>119.090300315133</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-0.0002631127265759</v>
-      </c>
-      <c r="O80" t="n">
-        <v>12.64659236909</v>
-      </c>
-      <c r="P80" t="n">
-        <v>35475.26024876975</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5231,21 +4021,6 @@
           <t>trim at 0.05</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>0.0024324019778128</v>
-      </c>
-      <c r="M81" t="n">
-        <v>115.716025680978</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.0004627965160671</v>
-      </c>
-      <c r="O81" t="n">
-        <v>29.5464961429663</v>
-      </c>
-      <c r="P81" t="n">
-        <v>43749.63981955958</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5289,21 +4064,6 @@
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>0.0005822215377281</v>
-      </c>
-      <c r="M82" t="n">
-        <v>43.099975477242</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-4.82756956746927e-06</v>
-      </c>
-      <c r="O82" t="n">
-        <v>15.4781372773018</v>
-      </c>
-      <c r="P82" t="n">
-        <v>47052.00613827537</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5351,21 +4111,6 @@
           <t>trim at 0.15</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>0.00080048817503</v>
-      </c>
-      <c r="M83" t="n">
-        <v>56.7732969744529</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.0003682500031485</v>
-      </c>
-      <c r="O83" t="n">
-        <v>42.6310257037105</v>
-      </c>
-      <c r="P83" t="n">
-        <v>32718.70045438644</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5413,21 +4158,6 @@
           <t>trim at 0.1</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>0.0012773467743735</v>
-      </c>
-      <c r="M84" t="n">
-        <v>56.9308587258361</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.0001736024241044</v>
-      </c>
-      <c r="O84" t="n">
-        <v>1.50460191896753</v>
-      </c>
-      <c r="P84" t="n">
-        <v>50216.57124981459</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5475,21 +4205,6 @@
           <t>trim at 0.15</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>0.0014327517010738</v>
-      </c>
-      <c r="M85" t="n">
-        <v>51.7861136852212</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.0006416657414823</v>
-      </c>
-      <c r="O85" t="n">
-        <v>26.3712347951603</v>
-      </c>
-      <c r="P85" t="n">
-        <v>32126.57054763632</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5537,21 +4252,6 @@
           <t>trim at 0.15</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>0.0009714729283885</v>
-      </c>
-      <c r="M86" t="n">
-        <v>57.0351509504363</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.0005275471835426</v>
-      </c>
-      <c r="O86" t="n">
-        <v>33.316765619273</v>
-      </c>
-      <c r="P86" t="n">
-        <v>53428.72227290324</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5599,21 +4299,6 @@
           <t>trim at 0.12</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>0.0021140556723788</v>
-      </c>
-      <c r="M87" t="n">
-        <v>51.8909929303517</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.0010060562122009</v>
-      </c>
-      <c r="O87" t="n">
-        <v>3.86166708328733</v>
-      </c>
-      <c r="P87" t="n">
-        <v>43347.78812920433</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5661,21 +4346,6 @@
           <t>trim at 0.15</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>0.0005480058125115</v>
-      </c>
-      <c r="M88" t="n">
-        <v>43.4660299348499</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.0002442005746436</v>
-      </c>
-      <c r="O88" t="n">
-        <v>24.7838060102016</v>
-      </c>
-      <c r="P88" t="n">
-        <v>61494.08106245905</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5719,21 +4389,6 @@
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>0.0011334439581187</v>
-      </c>
-      <c r="M89" t="n">
-        <v>61.7681774556576</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-0.0001632601288575</v>
-      </c>
-      <c r="O89" t="n">
-        <v>9.37621225235857</v>
-      </c>
-      <c r="P89" t="n">
-        <v>40403.9485411606</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5781,21 +4436,6 @@
           <t>trim at 0.11</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>0.0008839086860013</v>
-      </c>
-      <c r="M90" t="n">
-        <v>56.27423602054</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.0004878921451283</v>
-      </c>
-      <c r="O90" t="n">
-        <v>39.677883454939</v>
-      </c>
-      <c r="P90" t="n">
-        <v>41908.23072444175</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5839,21 +4479,6 @@
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>0.0007724399716412</v>
-      </c>
-      <c r="M91" t="n">
-        <v>40.9703547439299</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0.0006541662046415</v>
-      </c>
-      <c r="O91" t="n">
-        <v>34.5391286087219</v>
-      </c>
-      <c r="P91" t="n">
-        <v>54375.76140805859</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5901,21 +4526,6 @@
           <t>trim at 0.15</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>0.0014238267674319</v>
-      </c>
-      <c r="M92" t="n">
-        <v>54.103419580053</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.0003151730575199</v>
-      </c>
-      <c r="O92" t="n">
-        <v>5.61124040058898</v>
-      </c>
-      <c r="P92" t="n">
-        <v>43739.69865063918</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5963,21 +4573,6 @@
           <t>trim at 0.15</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>0.0010451434275552</v>
-      </c>
-      <c r="M93" t="n">
-        <v>66.9553327522687</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.0003896417940586</v>
-      </c>
-      <c r="O93" t="n">
-        <v>47.9347433993002</v>
-      </c>
-      <c r="P93" t="n">
-        <v>29016.84508627111</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6025,21 +4620,6 @@
           <t>trim at 0.15</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>0.0012755541851029</v>
-      </c>
-      <c r="M94" t="n">
-        <v>43.0868710364167</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0.0003638079961085</v>
-      </c>
-      <c r="O94" t="n">
-        <v>1.73948282232606</v>
-      </c>
-      <c r="P94" t="n">
-        <v>45349.66936324052</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6087,21 +4667,6 @@
           <t>trim at 0.15</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>0.0016088378893386</v>
-      </c>
-      <c r="M95" t="n">
-        <v>59.7216564670194</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.0003188720273542</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0.9256333178703851</v>
-      </c>
-      <c r="P95" t="n">
-        <v>45579.5187158682</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6149,21 +4714,6 @@
           <t>trim at 0.15</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>-0.0001349380301042</v>
-      </c>
-      <c r="M96" t="n">
-        <v>54.0681392270688</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-0.0004296650440706</v>
-      </c>
-      <c r="O96" t="n">
-        <v>32.9378644640673</v>
-      </c>
-      <c r="P96" t="n">
-        <v>71694.39434354132</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6211,21 +4761,6 @@
           <t>trim at 0.15</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>0.001170348675175</v>
-      </c>
-      <c r="M97" t="n">
-        <v>41.4568277525965</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.0008781701344557</v>
-      </c>
-      <c r="O97" t="n">
-        <v>28.6843134994752</v>
-      </c>
-      <c r="P97" t="n">
-        <v>43714.75818065652</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6269,21 +4804,6 @@
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>-0.0016186958523188</v>
-      </c>
-      <c r="M98" t="n">
-        <v>55.1712364974773</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-0.0021129968777836</v>
-      </c>
-      <c r="O98" t="n">
-        <v>31.5012589561555</v>
-      </c>
-      <c r="P98" t="n">
-        <v>47885.75447332828</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6331,21 +4851,6 @@
           <t>trim at 0.1</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>0.0016879714153149</v>
-      </c>
-      <c r="M99" t="n">
-        <v>71.69828730701499</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.0006632098361363</v>
-      </c>
-      <c r="O99" t="n">
-        <v>46.8159610839017</v>
-      </c>
-      <c r="P99" t="n">
-        <v>24281.08813667447</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6389,21 +4894,6 @@
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>0.0017196871597708</v>
-      </c>
-      <c r="M100" t="n">
-        <v>77.33133438958311</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.0016168398321146</v>
-      </c>
-      <c r="O100" t="n">
-        <v>75.3521519812235</v>
-      </c>
-      <c r="P100" t="n">
-        <v>19243.88755122208</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6450,21 +4940,6 @@
         <is>
           <t>trim at 0.12</t>
         </is>
-      </c>
-      <c r="L101" t="n">
-        <v>0.0014895556037713</v>
-      </c>
-      <c r="M101" t="n">
-        <v>69.8810427182453</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0.0006035643014249</v>
-      </c>
-      <c r="O101" t="n">
-        <v>40.4457665838092</v>
-      </c>
-      <c r="P101" t="n">
-        <v>33222.98543617944</v>
       </c>
     </row>
   </sheetData>
